--- a/Dự án cây xanh/WBS_QuanLyDuAnCayXanh.xlsx
+++ b/Dự án cây xanh/WBS_QuanLyDuAnCayXanh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InternTester\Project\Dự án cây xanh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5468B6A4-F129-4496-BCDC-CEB0E33E2074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE140A07-55F5-47FB-87B1-F8EFD7C9ACB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1516,6 +1516,14 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1524,19 +1532,89 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="198">
+  <dxfs count="179">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1570,8 +1648,549 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF0070C0"/>
           <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1678,8 +2297,84 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF0070C0"/>
           <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1695,6 +2390,60 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1726,136 +2475,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF0070C0"/>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1938,9 +2557,62 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF7F7F7F"/>
           <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1977,136 +2649,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FF7F7F7F"/>
           <bgColor rgb="FF7F7F7F"/>
         </patternFill>
@@ -2122,17 +2664,15 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2172,679 +2712,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF0070C0"/>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3288,8 +3155,8 @@
   <dimension ref="A1:BN170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3519,11 +3386,11 @@
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="103">
+      <c r="C4" s="107">
         <v>45770</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
+      <c r="D4" s="108"/>
+      <c r="E4" s="108"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
         <v>1</v>
@@ -3533,182 +3400,182 @@
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="110" t="str">
+      <c r="K4" s="103" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 2</v>
       </c>
-      <c r="L4" s="108"/>
-      <c r="M4" s="108"/>
-      <c r="N4" s="108"/>
-      <c r="O4" s="108"/>
-      <c r="P4" s="108"/>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="110" t="str">
+      <c r="L4" s="104"/>
+      <c r="M4" s="104"/>
+      <c r="N4" s="104"/>
+      <c r="O4" s="104"/>
+      <c r="P4" s="104"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="103" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 3</v>
       </c>
-      <c r="S4" s="108"/>
-      <c r="T4" s="108"/>
-      <c r="U4" s="108"/>
-      <c r="V4" s="108"/>
-      <c r="W4" s="108"/>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="110" t="str">
+      <c r="S4" s="104"/>
+      <c r="T4" s="104"/>
+      <c r="U4" s="104"/>
+      <c r="V4" s="104"/>
+      <c r="W4" s="104"/>
+      <c r="X4" s="105"/>
+      <c r="Y4" s="103" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 4</v>
       </c>
-      <c r="Z4" s="108"/>
-      <c r="AA4" s="108"/>
-      <c r="AB4" s="108"/>
-      <c r="AC4" s="108"/>
-      <c r="AD4" s="108"/>
-      <c r="AE4" s="109"/>
-      <c r="AF4" s="110" t="str">
+      <c r="Z4" s="104"/>
+      <c r="AA4" s="104"/>
+      <c r="AB4" s="104"/>
+      <c r="AC4" s="104"/>
+      <c r="AD4" s="104"/>
+      <c r="AE4" s="105"/>
+      <c r="AF4" s="103" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 5</v>
       </c>
-      <c r="AG4" s="108"/>
-      <c r="AH4" s="108"/>
-      <c r="AI4" s="108"/>
-      <c r="AJ4" s="108"/>
-      <c r="AK4" s="108"/>
-      <c r="AL4" s="109"/>
-      <c r="AM4" s="110" t="str">
+      <c r="AG4" s="104"/>
+      <c r="AH4" s="104"/>
+      <c r="AI4" s="104"/>
+      <c r="AJ4" s="104"/>
+      <c r="AK4" s="104"/>
+      <c r="AL4" s="105"/>
+      <c r="AM4" s="103" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 6</v>
       </c>
-      <c r="AN4" s="108"/>
-      <c r="AO4" s="108"/>
-      <c r="AP4" s="108"/>
-      <c r="AQ4" s="108"/>
-      <c r="AR4" s="108"/>
-      <c r="AS4" s="109"/>
-      <c r="AT4" s="110" t="str">
+      <c r="AN4" s="104"/>
+      <c r="AO4" s="104"/>
+      <c r="AP4" s="104"/>
+      <c r="AQ4" s="104"/>
+      <c r="AR4" s="104"/>
+      <c r="AS4" s="105"/>
+      <c r="AT4" s="103" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 7</v>
       </c>
-      <c r="AU4" s="108"/>
-      <c r="AV4" s="108"/>
-      <c r="AW4" s="108"/>
-      <c r="AX4" s="108"/>
-      <c r="AY4" s="108"/>
-      <c r="AZ4" s="109"/>
-      <c r="BA4" s="110" t="str">
+      <c r="AU4" s="104"/>
+      <c r="AV4" s="104"/>
+      <c r="AW4" s="104"/>
+      <c r="AX4" s="104"/>
+      <c r="AY4" s="104"/>
+      <c r="AZ4" s="105"/>
+      <c r="BA4" s="103" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 8</v>
       </c>
-      <c r="BB4" s="108"/>
-      <c r="BC4" s="108"/>
-      <c r="BD4" s="108"/>
-      <c r="BE4" s="108"/>
-      <c r="BF4" s="108"/>
-      <c r="BG4" s="109"/>
-      <c r="BH4" s="110" t="str">
+      <c r="BB4" s="104"/>
+      <c r="BC4" s="104"/>
+      <c r="BD4" s="104"/>
+      <c r="BE4" s="104"/>
+      <c r="BF4" s="104"/>
+      <c r="BG4" s="105"/>
+      <c r="BH4" s="103" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
         <v>Week 9</v>
       </c>
-      <c r="BI4" s="108"/>
-      <c r="BJ4" s="108"/>
-      <c r="BK4" s="108"/>
-      <c r="BL4" s="108"/>
-      <c r="BM4" s="108"/>
-      <c r="BN4" s="109"/>
+      <c r="BI4" s="104"/>
+      <c r="BJ4" s="104"/>
+      <c r="BK4" s="104"/>
+      <c r="BL4" s="104"/>
+      <c r="BM4" s="104"/>
+      <c r="BN4" s="105"/>
     </row>
     <row r="5" spans="1:66" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="109" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="107">
+      <c r="K5" s="106">
         <f>K6</f>
         <v>45775</v>
       </c>
-      <c r="L5" s="108"/>
-      <c r="M5" s="108"/>
-      <c r="N5" s="108"/>
-      <c r="O5" s="108"/>
-      <c r="P5" s="108"/>
-      <c r="Q5" s="109"/>
-      <c r="R5" s="107">
+      <c r="L5" s="104"/>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="104"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="105"/>
+      <c r="R5" s="106">
         <f>R6</f>
         <v>45782</v>
       </c>
-      <c r="S5" s="108"/>
-      <c r="T5" s="108"/>
-      <c r="U5" s="108"/>
-      <c r="V5" s="108"/>
-      <c r="W5" s="108"/>
-      <c r="X5" s="109"/>
-      <c r="Y5" s="107">
+      <c r="S5" s="104"/>
+      <c r="T5" s="104"/>
+      <c r="U5" s="104"/>
+      <c r="V5" s="104"/>
+      <c r="W5" s="104"/>
+      <c r="X5" s="105"/>
+      <c r="Y5" s="106">
         <f>Y6</f>
         <v>45789</v>
       </c>
-      <c r="Z5" s="108"/>
-      <c r="AA5" s="108"/>
-      <c r="AB5" s="108"/>
-      <c r="AC5" s="108"/>
-      <c r="AD5" s="108"/>
-      <c r="AE5" s="109"/>
-      <c r="AF5" s="107">
+      <c r="Z5" s="104"/>
+      <c r="AA5" s="104"/>
+      <c r="AB5" s="104"/>
+      <c r="AC5" s="104"/>
+      <c r="AD5" s="104"/>
+      <c r="AE5" s="105"/>
+      <c r="AF5" s="106">
         <f>AF6</f>
         <v>45796</v>
       </c>
-      <c r="AG5" s="108"/>
-      <c r="AH5" s="108"/>
-      <c r="AI5" s="108"/>
-      <c r="AJ5" s="108"/>
-      <c r="AK5" s="108"/>
-      <c r="AL5" s="109"/>
-      <c r="AM5" s="107">
+      <c r="AG5" s="104"/>
+      <c r="AH5" s="104"/>
+      <c r="AI5" s="104"/>
+      <c r="AJ5" s="104"/>
+      <c r="AK5" s="104"/>
+      <c r="AL5" s="105"/>
+      <c r="AM5" s="106">
         <f>AM6</f>
         <v>45803</v>
       </c>
-      <c r="AN5" s="108"/>
-      <c r="AO5" s="108"/>
-      <c r="AP5" s="108"/>
-      <c r="AQ5" s="108"/>
-      <c r="AR5" s="108"/>
-      <c r="AS5" s="109"/>
-      <c r="AT5" s="107">
+      <c r="AN5" s="104"/>
+      <c r="AO5" s="104"/>
+      <c r="AP5" s="104"/>
+      <c r="AQ5" s="104"/>
+      <c r="AR5" s="104"/>
+      <c r="AS5" s="105"/>
+      <c r="AT5" s="106">
         <f>AT6</f>
         <v>45810</v>
       </c>
-      <c r="AU5" s="108"/>
-      <c r="AV5" s="108"/>
-      <c r="AW5" s="108"/>
-      <c r="AX5" s="108"/>
-      <c r="AY5" s="108"/>
-      <c r="AZ5" s="109"/>
-      <c r="BA5" s="107">
+      <c r="AU5" s="104"/>
+      <c r="AV5" s="104"/>
+      <c r="AW5" s="104"/>
+      <c r="AX5" s="104"/>
+      <c r="AY5" s="104"/>
+      <c r="AZ5" s="105"/>
+      <c r="BA5" s="106">
         <f>BA6</f>
         <v>45817</v>
       </c>
-      <c r="BB5" s="108"/>
-      <c r="BC5" s="108"/>
-      <c r="BD5" s="108"/>
-      <c r="BE5" s="108"/>
-      <c r="BF5" s="108"/>
-      <c r="BG5" s="109"/>
-      <c r="BH5" s="107">
+      <c r="BB5" s="104"/>
+      <c r="BC5" s="104"/>
+      <c r="BD5" s="104"/>
+      <c r="BE5" s="104"/>
+      <c r="BF5" s="104"/>
+      <c r="BG5" s="105"/>
+      <c r="BH5" s="106">
         <f>BH6</f>
         <v>45824</v>
       </c>
-      <c r="BI5" s="108"/>
-      <c r="BJ5" s="108"/>
-      <c r="BK5" s="108"/>
-      <c r="BL5" s="108"/>
-      <c r="BM5" s="108"/>
-      <c r="BN5" s="109"/>
+      <c r="BI5" s="104"/>
+      <c r="BJ5" s="104"/>
+      <c r="BK5" s="104"/>
+      <c r="BL5" s="104"/>
+      <c r="BM5" s="104"/>
+      <c r="BN5" s="105"/>
     </row>
     <row r="6" spans="1:66" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -4896,7 +4763,9 @@
       <c r="G16" s="35">
         <v>1</v>
       </c>
-      <c r="H16" s="36"/>
+      <c r="H16" s="36">
+        <v>0.95</v>
+      </c>
       <c r="I16" s="37">
         <f>IF(OR(F16=0,E16=0)," - ",NETWORKDAYS(E16,F16))</f>
         <v>1</v>
@@ -4980,7 +4849,9 @@
       <c r="G17" s="35">
         <v>1</v>
       </c>
-      <c r="H17" s="36"/>
+      <c r="H17" s="36">
+        <v>0.95</v>
+      </c>
       <c r="I17" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -5064,7 +4935,9 @@
       <c r="G18" s="35">
         <v>1</v>
       </c>
-      <c r="H18" s="36"/>
+      <c r="H18" s="36">
+        <v>0.9</v>
+      </c>
       <c r="I18" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -5148,7 +5021,9 @@
       <c r="G19" s="35">
         <v>1</v>
       </c>
-      <c r="H19" s="36"/>
+      <c r="H19" s="36">
+        <v>1</v>
+      </c>
       <c r="I19" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -5467,7 +5342,9 @@
       <c r="G23" s="35">
         <v>1</v>
       </c>
-      <c r="H23" s="36"/>
+      <c r="H23" s="36">
+        <v>1</v>
+      </c>
       <c r="I23" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -5551,7 +5428,9 @@
       <c r="G24" s="35">
         <v>1</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="36">
+        <v>1</v>
+      </c>
       <c r="I24" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -5635,7 +5514,9 @@
       <c r="G25" s="35">
         <v>1</v>
       </c>
-      <c r="H25" s="36"/>
+      <c r="H25" s="36">
+        <v>0.7</v>
+      </c>
       <c r="I25" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -5719,7 +5600,9 @@
       <c r="G26" s="35">
         <v>1</v>
       </c>
-      <c r="H26" s="36"/>
+      <c r="H26" s="36">
+        <v>0.9</v>
+      </c>
       <c r="I26" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -17797,6 +17680,14 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BH4:BN4"/>
@@ -17807,775 +17698,714 @@
     <mergeCell ref="AM5:AS5"/>
     <mergeCell ref="AT4:AZ4"/>
     <mergeCell ref="BA4:BG4"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
   </mergeCells>
   <conditionalFormatting sqref="K6:BN7">
-    <cfRule type="expression" dxfId="197" priority="152">
+    <cfRule type="expression" dxfId="178" priority="152">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K6:BN29 Y30:BN30 K30:V34 X31:BN34 K35:BN91 W92:W93 K92:V106 X92:BN106 W95:W102 W32:W34 W104:W106 K107:BN170">
-    <cfRule type="expression" dxfId="196" priority="155">
+  <conditionalFormatting sqref="K6:BN29 Y30:BN30 K30:V34 X31:BN34 K35:BN91 W92:W93 K92:V106 X92:BN106 W95:W102 K107:BN170 W32:W34 W104:W106">
+    <cfRule type="expression" dxfId="177" priority="155">
       <formula>K$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K7:BN170">
-    <cfRule type="expression" dxfId="195" priority="111">
+    <cfRule type="expression" dxfId="176" priority="111">
       <formula>OR(WEEKDAY(K$6,1)=7,WEEKDAY(K$6,1)=1)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K8:BN29 Y30:BN30 K30:V34 X31:BN34 K35:BN35 K36:V58 X36:BN58 K59:BN59 W92:W93 W102 K60:V170 X60:BN170">
-    <cfRule type="expression" dxfId="194" priority="153">
+  <conditionalFormatting sqref="K8:BN29 Y30:BN30 K30:V34 X31:BN34 K35:BN35 K36:V58 X36:BN58 K59:BN59 K60:V170 X60:BN170 W92:W93 W102">
+    <cfRule type="expression" dxfId="175" priority="153">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="193" priority="154">
+    <cfRule type="expression" dxfId="174" priority="154">
       <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6,WEEKDAY(K$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30:W31">
-    <cfRule type="expression" dxfId="192" priority="157">
+    <cfRule type="expression" dxfId="173" priority="157">
       <formula>X$6=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32:W34 W36:W40 W44 W46 W48 W50 W95:W101 W104:W111 W115 W117 W119 W121 W164:W170">
-    <cfRule type="expression" dxfId="191" priority="170">
+    <cfRule type="expression" dxfId="172" priority="170">
       <formula>AND($E31&lt;=W$6,ROUNDDOWN(($F31-$E31+1)*$H31,0)+$E31-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="190" priority="171">
+    <cfRule type="expression" dxfId="171" priority="171">
       <formula>AND(NOT(ISBLANK($E31)),$E31&lt;=W$6,$F31&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W32:W34 W36:W40 W102">
-    <cfRule type="expression" dxfId="189" priority="1281">
+    <cfRule type="expression" dxfId="170" priority="1281">
       <formula>AND(NOT(ISBLANK($E96)),$E96&lt;=X$6,$F96&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W41 W47 W49 W51">
-    <cfRule type="expression" dxfId="188" priority="397">
+    <cfRule type="expression" dxfId="169" priority="397">
       <formula>AND(NOT(ISBLANK($E39)),$E39&lt;=W$6,$F39&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W41 W100:W101 W104:W106">
-    <cfRule type="expression" dxfId="187" priority="1370">
+    <cfRule type="expression" dxfId="168" priority="1370">
       <formula>AND(NOT(ISBLANK($E104)),$E104&lt;=X$6,$F104&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42 W52 W113 W123">
-    <cfRule type="expression" dxfId="186" priority="385">
+    <cfRule type="expression" dxfId="167" priority="385">
       <formula>AND($E39&lt;=W$6,ROUNDDOWN(($F39-$E39+1)*$H39,0)+$E39-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="185" priority="386">
+    <cfRule type="expression" dxfId="166" priority="386">
       <formula>AND(NOT(ISBLANK($E39)),$E39&lt;=W$6,$F39&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W42">
-    <cfRule type="expression" dxfId="184" priority="1500">
+    <cfRule type="expression" dxfId="165" priority="1500">
       <formula>AND(NOT(ISBLANK($E104)),$E104&lt;=X$6,$F104&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W43 W53 W114 W124">
-    <cfRule type="expression" dxfId="183" priority="374">
+    <cfRule type="expression" dxfId="164" priority="374">
       <formula>AND($E39&lt;=W$6,ROUNDDOWN(($F39-$E39+1)*$H39,0)+$E39-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="182" priority="375">
+    <cfRule type="expression" dxfId="163" priority="375">
       <formula>AND(NOT(ISBLANK($E39)),$E39&lt;=W$6,$F39&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W43:W44">
-    <cfRule type="expression" dxfId="181" priority="3742">
+    <cfRule type="expression" dxfId="162" priority="3742">
       <formula>AND(NOT(ISBLANK($E104)),$E104&lt;=X$6,$F104&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W45 W56 W116 W127">
-    <cfRule type="expression" dxfId="180" priority="341">
+    <cfRule type="expression" dxfId="161" priority="341">
       <formula>AND($E38&lt;=W$6,ROUNDDOWN(($F38-$E38+1)*$H38,0)+$E38-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="179" priority="342">
+    <cfRule type="expression" dxfId="160" priority="342">
       <formula>AND(NOT(ISBLANK($E38)),$E38&lt;=W$6,$F38&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W45:W46">
-    <cfRule type="expression" dxfId="178" priority="378">
+    <cfRule type="expression" dxfId="159" priority="378">
       <formula>AND(NOT(ISBLANK($E103)),$E103&lt;=X$6,$F103&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W47 W41 W49 W51">
-    <cfRule type="expression" dxfId="177" priority="396">
+    <cfRule type="expression" dxfId="158" priority="396">
       <formula>AND($E39&lt;=W$6,ROUNDDOWN(($F39-$E39+1)*$H39,0)+$E39-1&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W47:W48">
-    <cfRule type="expression" dxfId="176" priority="367">
+    <cfRule type="expression" dxfId="157" priority="367">
       <formula>AND(NOT(ISBLANK($E104)),$E104&lt;=X$6,$F104&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W49">
-    <cfRule type="expression" dxfId="175" priority="3747">
+    <cfRule type="expression" dxfId="156" priority="3747">
       <formula>AND(NOT(ISBLANK($E105)),$E105&lt;=X$6,$F105&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W50">
-    <cfRule type="expression" dxfId="174" priority="3430">
+    <cfRule type="expression" dxfId="155" priority="3430">
       <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W51">
-    <cfRule type="expression" dxfId="173" priority="3431">
+    <cfRule type="expression" dxfId="154" priority="3431">
       <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W52">
-    <cfRule type="expression" dxfId="172" priority="3751">
+    <cfRule type="expression" dxfId="153" priority="3751">
       <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W53">
-    <cfRule type="expression" dxfId="171" priority="3948">
+    <cfRule type="expression" dxfId="152" priority="3948">
       <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W54">
-    <cfRule type="expression" dxfId="170" priority="3949">
+    <cfRule type="expression" dxfId="151" priority="3951">
+      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="150" priority="3949">
       <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="169" priority="3950">
+    <cfRule type="expression" dxfId="149" priority="3950">
       <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="168" priority="3951">
-      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W55">
-    <cfRule type="expression" dxfId="167" priority="3952">
-      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="148" priority="3954">
+      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="166" priority="3953">
+    <cfRule type="expression" dxfId="147" priority="3953">
       <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="165" priority="3954">
-      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    <cfRule type="expression" dxfId="146" priority="3952">
+      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W56">
-    <cfRule type="expression" dxfId="164" priority="3955">
+    <cfRule type="expression" dxfId="145" priority="3955">
       <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W57">
-    <cfRule type="expression" dxfId="163" priority="3956">
-      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="144" priority="3958">
+      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="162" priority="3957">
+    <cfRule type="expression" dxfId="143" priority="3957">
       <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="161" priority="3958">
-      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    <cfRule type="expression" dxfId="142" priority="3956">
+      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W58">
-    <cfRule type="expression" dxfId="160" priority="3959">
-      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="159" priority="3960">
+    <cfRule type="expression" dxfId="141" priority="3960">
       <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="158" priority="3961">
+    <cfRule type="expression" dxfId="140" priority="3961">
       <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="139" priority="3959">
+      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W60">
-    <cfRule type="expression" dxfId="157" priority="3962">
-      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="138" priority="3964">
+      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="156" priority="3963">
+    <cfRule type="expression" dxfId="137" priority="3963">
       <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="155" priority="3964">
-      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    <cfRule type="expression" dxfId="136" priority="3962">
+      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W61">
-    <cfRule type="expression" dxfId="154" priority="3965">
-      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="135" priority="3967">
+      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="3966">
+    <cfRule type="expression" dxfId="134" priority="3966">
       <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="152" priority="3967">
-      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    <cfRule type="expression" dxfId="133" priority="3965">
+      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W62">
-    <cfRule type="expression" dxfId="151" priority="3968">
+    <cfRule type="expression" dxfId="132" priority="3969">
+      <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="3968">
       <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="150" priority="3969">
-      <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="149" priority="3970">
+    <cfRule type="expression" dxfId="130" priority="3970">
       <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W63">
-    <cfRule type="expression" dxfId="148" priority="3971">
+    <cfRule type="expression" dxfId="129" priority="3971">
       <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="3972">
+    <cfRule type="expression" dxfId="128" priority="3972">
       <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="3973">
+    <cfRule type="expression" dxfId="127" priority="3973">
       <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W64">
-    <cfRule type="expression" dxfId="145" priority="3974">
+    <cfRule type="expression" dxfId="126" priority="3974">
       <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="144" priority="3975">
+    <cfRule type="expression" dxfId="125" priority="3975">
       <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="143" priority="3976">
+    <cfRule type="expression" dxfId="124" priority="3976">
       <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W65:W66">
-    <cfRule type="expression" dxfId="142" priority="3977">
+    <cfRule type="expression" dxfId="123" priority="3977">
       <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="141" priority="3978">
+    <cfRule type="expression" dxfId="122" priority="3978">
       <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="3979">
+    <cfRule type="expression" dxfId="121" priority="3979">
       <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W67">
-    <cfRule type="expression" dxfId="139" priority="3980">
+    <cfRule type="expression" dxfId="120" priority="3982">
+      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="119" priority="3980">
       <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="138" priority="3981">
+    <cfRule type="expression" dxfId="118" priority="3981">
       <formula>AND($E50&lt;=W$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="137" priority="3982">
-      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W68">
-    <cfRule type="expression" dxfId="136" priority="3983">
-      <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="117" priority="3985">
+      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="135" priority="3984">
+    <cfRule type="expression" dxfId="116" priority="3984">
       <formula>AND($E50&lt;=W$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="134" priority="3985">
-      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    <cfRule type="expression" dxfId="115" priority="3983">
+      <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W69">
-    <cfRule type="expression" dxfId="133" priority="3986">
-      <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="114" priority="3988">
+      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="3987">
+    <cfRule type="expression" dxfId="113" priority="3987">
       <formula>AND($E50&lt;=W$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="3988">
-      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    <cfRule type="expression" dxfId="112" priority="3986">
+      <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W70">
-    <cfRule type="expression" dxfId="130" priority="3989">
-      <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="111" priority="3991">
+      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="129" priority="3990">
+    <cfRule type="expression" dxfId="110" priority="3990">
       <formula>AND($E50&lt;=W$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="128" priority="3991">
-      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    <cfRule type="expression" dxfId="109" priority="3989">
+      <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W71">
-    <cfRule type="expression" dxfId="127" priority="3992">
+    <cfRule type="expression" dxfId="108" priority="3993">
+      <formula>AND($E50&lt;=W$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="107" priority="3992">
       <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="126" priority="3993">
-      <formula>AND($E50&lt;=W$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="125" priority="3994">
+    <cfRule type="expression" dxfId="106" priority="3994">
       <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W72:W73">
-    <cfRule type="expression" dxfId="124" priority="3995">
-      <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="105" priority="3997">
+      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="123" priority="3996">
+    <cfRule type="expression" dxfId="104" priority="3996">
       <formula>AND($E50&lt;=W$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="3997">
-      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    <cfRule type="expression" dxfId="103" priority="3995">
+      <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W74">
-    <cfRule type="expression" dxfId="121" priority="3998">
-      <formula>AND(NOT(ISBLANK($E165)),$E165&lt;=X$6,$F165&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="102" priority="4000">
+      <formula>AND(NOT(ISBLANK($E51)),$E51&lt;=W$6,$F51&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="120" priority="3999">
+    <cfRule type="expression" dxfId="101" priority="3999">
       <formula>AND($E51&lt;=W$6,ROUNDDOWN(($F51-$E51+1)*$H51,0)+$E51-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="119" priority="4000">
-      <formula>AND(NOT(ISBLANK($E51)),$E51&lt;=W$6,$F51&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    <cfRule type="expression" dxfId="100" priority="3998">
+      <formula>AND(NOT(ISBLANK($E165)),$E165&lt;=X$6,$F165&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75:W76">
-    <cfRule type="expression" dxfId="118" priority="4001">
+    <cfRule type="expression" dxfId="99" priority="4003">
+      <formula>AND(NOT(ISBLANK($E51)),$E51&lt;=W$6,$F51&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="98" priority="4001">
       <formula>AND(NOT(ISBLANK($E165)),$E165&lt;=X$6,$F165&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="117" priority="4002">
+    <cfRule type="expression" dxfId="97" priority="4002">
       <formula>AND($E51&lt;=W$6,ROUNDDOWN(($F51-$E51+1)*$H51,0)+$E51-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="4003">
-      <formula>AND(NOT(ISBLANK($E51)),$E51&lt;=W$6,$F51&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W77">
-    <cfRule type="expression" dxfId="115" priority="4004">
+    <cfRule type="expression" dxfId="96" priority="4004">
       <formula>AND(NOT(ISBLANK($E166)),$E166&lt;=X$6,$F166&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="114" priority="4005">
+    <cfRule type="expression" dxfId="95" priority="4005">
       <formula>AND($E52&lt;=W$6,ROUNDDOWN(($F52-$E52+1)*$H52,0)+$E52-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="113" priority="4006">
+    <cfRule type="expression" dxfId="94" priority="4006">
       <formula>AND(NOT(ISBLANK($E52)),$E52&lt;=W$6,$F52&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W78">
-    <cfRule type="expression" dxfId="112" priority="4007">
+    <cfRule type="expression" dxfId="93" priority="4007">
       <formula>AND(NOT(ISBLANK($E166)),$E166&lt;=X$6,$F166&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="4008">
+    <cfRule type="expression" dxfId="92" priority="4008">
       <formula>AND($E52&lt;=W$6,ROUNDDOWN(($F52-$E52+1)*$H52,0)+$E52-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="110" priority="4009">
+    <cfRule type="expression" dxfId="91" priority="4009">
       <formula>AND(NOT(ISBLANK($E52)),$E52&lt;=W$6,$F52&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W79:W80 W82:W84">
-    <cfRule type="expression" dxfId="109" priority="4010">
+    <cfRule type="expression" dxfId="90" priority="4010">
       <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="108" priority="4011">
+    <cfRule type="expression" dxfId="89" priority="4011">
       <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="4012">
+    <cfRule type="expression" dxfId="88" priority="4012">
       <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W81">
-    <cfRule type="expression" dxfId="106" priority="3816">
+    <cfRule type="expression" dxfId="87" priority="3816">
       <formula>AND($E67&lt;=W$6,ROUNDDOWN(($F67-$E67+1)*$H67,0)+$E67-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="3817">
+    <cfRule type="expression" dxfId="86" priority="3817">
       <formula>AND(NOT(ISBLANK($E67)),$E67&lt;=W$6,$F67&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="3818">
+    <cfRule type="expression" dxfId="85" priority="3818">
       <formula>AND(NOT(ISBLANK($E95)),$E95&lt;=X$6,$F95&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W85">
-    <cfRule type="expression" dxfId="103" priority="4016">
+    <cfRule type="expression" dxfId="84" priority="4016">
       <formula>AND($E54&lt;=W$6,ROUNDDOWN(($F54-$E54+1)*$H54,0)+$E54-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="102" priority="4017">
+    <cfRule type="expression" dxfId="83" priority="4018">
+      <formula>AND(NOT(ISBLANK($E168)),$E168&lt;=X$6,$F168&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="4017">
       <formula>AND(NOT(ISBLANK($E54)),$E54&lt;=W$6,$F54&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="101" priority="4018">
-      <formula>AND(NOT(ISBLANK($E168)),$E168&lt;=X$6,$F168&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W86">
-    <cfRule type="expression" dxfId="100" priority="4019">
-      <formula>AND($E52&lt;=W$6,ROUNDDOWN(($F52-$E52+1)*$H52,0)+$E52-1&gt;=W$6)</formula>
+    <cfRule type="expression" dxfId="81" priority="4021">
+      <formula>AND(NOT(ISBLANK($E166)),$E166&lt;=X$6,$F166&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="99" priority="4020">
+    <cfRule type="expression" dxfId="80" priority="4020">
       <formula>AND(NOT(ISBLANK($E52)),$E52&lt;=W$6,$F52&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="4021">
-      <formula>AND(NOT(ISBLANK($E166)),$E166&lt;=X$6,$F166&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="79" priority="4019">
+      <formula>AND($E52&lt;=W$6,ROUNDDOWN(($F52-$E52+1)*$H52,0)+$E52-1&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W87:W88">
-    <cfRule type="expression" dxfId="97" priority="4022">
-      <formula>AND($E51&lt;=W$6,ROUNDDOWN(($F51-$E51+1)*$H51,0)+$E51-1&gt;=W$6)</formula>
+    <cfRule type="expression" dxfId="78" priority="4024">
+      <formula>AND(NOT(ISBLANK($E165)),$E165&lt;=X$6,$F165&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="96" priority="4023">
+    <cfRule type="expression" dxfId="77" priority="4023">
       <formula>AND(NOT(ISBLANK($E51)),$E51&lt;=W$6,$F51&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="95" priority="4024">
-      <formula>AND(NOT(ISBLANK($E165)),$E165&lt;=X$6,$F165&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="76" priority="4022">
+      <formula>AND($E51&lt;=W$6,ROUNDDOWN(($F51-$E51+1)*$H51,0)+$E51-1&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W89:W90">
-    <cfRule type="expression" dxfId="94" priority="4025">
+    <cfRule type="expression" dxfId="75" priority="4025">
       <formula>AND(NOT(ISBLANK($E165)),$E165&lt;=X$6,$F165&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="4026">
+    <cfRule type="expression" dxfId="74" priority="4026">
       <formula>AND($E51&lt;=W$6,ROUNDDOWN(($F51-$E51+1)*$H51,0)+$E51-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="92" priority="4027">
+    <cfRule type="expression" dxfId="73" priority="4027">
       <formula>AND(NOT(ISBLANK($E51)),$E51&lt;=W$6,$F51&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W91">
-    <cfRule type="expression" dxfId="91" priority="4028">
+    <cfRule type="expression" dxfId="72" priority="4028">
       <formula>AND($E52&lt;=W$6,ROUNDDOWN(($F52-$E52+1)*$H52,0)+$E52-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="4029">
+    <cfRule type="expression" dxfId="71" priority="4029">
       <formula>AND(NOT(ISBLANK($E52)),$E52&lt;=W$6,$F52&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="89" priority="4030">
+    <cfRule type="expression" dxfId="70" priority="4030">
       <formula>AND(NOT(ISBLANK($E166)),$E166&lt;=X$6,$F166&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W92:W93">
-    <cfRule type="expression" dxfId="88" priority="1491">
+    <cfRule type="expression" dxfId="69" priority="1491">
       <formula>AND(NOT(ISBLANK($E100)),$E100&lt;=X$6,$F100&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W95:W99 W163:W167">
-    <cfRule type="expression" dxfId="87" priority="176">
+    <cfRule type="expression" dxfId="68" priority="176">
       <formula>AND(NOT(ISBLANK($E101)),$E101&lt;=X$6,$F101&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W107:W108 W168:W170 W152">
-    <cfRule type="expression" dxfId="86" priority="3591">
+    <cfRule type="expression" dxfId="67" priority="3591">
+      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W109:W135">
+    <cfRule type="expression" dxfId="66" priority="3699">
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W112 W118 W120 W122">
-    <cfRule type="expression" dxfId="85" priority="81">
+    <cfRule type="expression" dxfId="65" priority="81">
       <formula>AND($E110&lt;=W$6,ROUNDDOWN(($F110-$E110+1)*$H110,0)+$E110-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="82">
+    <cfRule type="expression" dxfId="64" priority="82">
       <formula>AND(NOT(ISBLANK($E110)),$E110&lt;=W$6,$F110&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="W125">
+    <cfRule type="expression" dxfId="63" priority="4052">
+      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="4053">
+      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W126">
+    <cfRule type="expression" dxfId="61" priority="4055">
+      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="60" priority="4056">
+      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W128">
+    <cfRule type="expression" dxfId="59" priority="4059">
+      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="58" priority="4060">
+      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W129">
+    <cfRule type="expression" dxfId="57" priority="4063">
+      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="4062">
+      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="W130">
-    <cfRule type="expression" dxfId="83" priority="3697">
+    <cfRule type="expression" dxfId="55" priority="3698">
+      <formula>AND(NOT(ISBLANK($E125)),$E125&lt;=W$6,$F125&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="3697">
       <formula>AND($E125&lt;=W$6,ROUNDDOWN(($F125-$E125+1)*$H125,0)+$E125-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="3698">
-      <formula>AND(NOT(ISBLANK($E125)),$E125&lt;=W$6,$F125&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W131">
+    <cfRule type="expression" dxfId="53" priority="4065">
+      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="3699">
+    <cfRule type="expression" dxfId="52" priority="4066">
+      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W132">
+    <cfRule type="expression" dxfId="51" priority="4068">
+      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="4069">
+      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W133">
+    <cfRule type="expression" dxfId="49" priority="4072">
+      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="4071">
+      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W134">
+    <cfRule type="expression" dxfId="47" priority="4075">
+      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="4074">
+      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W135">
+    <cfRule type="expression" dxfId="45" priority="4077">
+      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="4078">
+      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W136:W137">
+    <cfRule type="expression" dxfId="43" priority="4079">
+      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="4080">
+      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W136:W149">
+    <cfRule type="expression" dxfId="41" priority="4081">
+      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W138">
+    <cfRule type="expression" dxfId="40" priority="4084">
+      <formula>AND(NOT(ISBLANK($E121)),$E121&lt;=W$6,$F121&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="4083">
+      <formula>AND($E121&lt;=W$6,ROUNDDOWN(($F121-$E121+1)*$H121,0)+$E121-1&gt;=W$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W139">
+    <cfRule type="expression" dxfId="38" priority="4086">
+      <formula>AND($E121&lt;=W$6,ROUNDDOWN(($F121-$E121+1)*$H121,0)+$E121-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="4087">
+      <formula>AND(NOT(ISBLANK($E121)),$E121&lt;=W$6,$F121&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W140">
+    <cfRule type="expression" dxfId="36" priority="4089">
+      <formula>AND($E121&lt;=W$6,ROUNDDOWN(($F121-$E121+1)*$H121,0)+$E121-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="35" priority="4090">
+      <formula>AND(NOT(ISBLANK($E121)),$E121&lt;=W$6,$F121&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W141">
+    <cfRule type="expression" dxfId="34" priority="4092">
+      <formula>AND($E121&lt;=W$6,ROUNDDOWN(($F121-$E121+1)*$H121,0)+$E121-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="33" priority="4093">
+      <formula>AND(NOT(ISBLANK($E121)),$E121&lt;=W$6,$F121&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W142">
+    <cfRule type="expression" dxfId="32" priority="4096">
+      <formula>AND(NOT(ISBLANK($E121)),$E121&lt;=W$6,$F121&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="4095">
+      <formula>AND($E121&lt;=W$6,ROUNDDOWN(($F121-$E121+1)*$H121,0)+$E121-1&gt;=W$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W143:W144">
+    <cfRule type="expression" dxfId="30" priority="4099">
+      <formula>AND(NOT(ISBLANK($E121)),$E121&lt;=W$6,$F121&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="29" priority="4098">
+      <formula>AND($E121&lt;=W$6,ROUNDDOWN(($F121-$E121+1)*$H121,0)+$E121-1&gt;=W$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W145">
+    <cfRule type="expression" dxfId="28" priority="4101">
+      <formula>AND($E122&lt;=W$6,ROUNDDOWN(($F122-$E122+1)*$H122,0)+$E122-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="4102">
+      <formula>AND(NOT(ISBLANK($E122)),$E122&lt;=W$6,$F122&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W146:W147">
+    <cfRule type="expression" dxfId="26" priority="4105">
+      <formula>AND(NOT(ISBLANK($E122)),$E122&lt;=W$6,$F122&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="4104">
+      <formula>AND($E122&lt;=W$6,ROUNDDOWN(($F122-$E122+1)*$H122,0)+$E122-1&gt;=W$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W148">
+    <cfRule type="expression" dxfId="24" priority="4108">
+      <formula>AND(NOT(ISBLANK($E123)),$E123&lt;=W$6,$F123&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="4107">
+      <formula>AND($E123&lt;=W$6,ROUNDDOWN(($F123-$E123+1)*$H123,0)+$E123-1&gt;=W$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W149">
+    <cfRule type="expression" dxfId="22" priority="4111">
+      <formula>AND(NOT(ISBLANK($E123)),$E123&lt;=W$6,$F123&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="4110">
+      <formula>AND($E123&lt;=W$6,ROUNDDOWN(($F123-$E123+1)*$H123,0)+$E123-1&gt;=W$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W150:W151 W153:W155">
+    <cfRule type="expression" dxfId="20" priority="4113">
+      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="4112">
+      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="18" priority="4114">
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W152">
-    <cfRule type="expression" dxfId="80" priority="2">
-      <formula>AND($E138&lt;=W$6,ROUNDDOWN(($F138-$E138+1)*$H138,0)+$E138-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="3">
+    <cfRule type="expression" dxfId="17" priority="3">
       <formula>AND(NOT(ISBLANK($E138)),$E138&lt;=W$6,$F138&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W158:W159">
-    <cfRule type="expression" dxfId="78" priority="8">
-      <formula>AND($E122&lt;=W$6,ROUNDDOWN(($F122-$E122+1)*$H122,0)+$E122-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="77" priority="9">
-      <formula>AND(NOT(ISBLANK($E122)),$E122&lt;=W$6,$F122&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W160:W161">
-    <cfRule type="expression" dxfId="76" priority="6">
-      <formula>AND($E122&lt;=W$6,ROUNDDOWN(($F122-$E122+1)*$H122,0)+$E122-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="75" priority="7">
-      <formula>AND(NOT(ISBLANK($E122)),$E122&lt;=W$6,$F122&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W163">
-    <cfRule type="expression" dxfId="74" priority="1512">
-      <formula>AND($E105&lt;=W$6,ROUNDDOWN(($F105-$E105+1)*$H105,0)+$E105-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="1513">
-      <formula>AND(NOT(ISBLANK($E105)),$E105&lt;=W$6,$F105&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W158:W161 W109:W124 W127">
-    <cfRule type="expression" dxfId="72" priority="4037">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W125">
-    <cfRule type="expression" dxfId="71" priority="4051">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="4052">
-      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="69" priority="4053">
-      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W126">
-    <cfRule type="expression" dxfId="68" priority="4054">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="4055">
-      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="66" priority="4056">
-      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W128">
-    <cfRule type="expression" dxfId="65" priority="4058">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="4059">
-      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="63" priority="4060">
-      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W129">
-    <cfRule type="expression" dxfId="62" priority="4061">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="4062">
-      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="60" priority="4063">
-      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W131">
-    <cfRule type="expression" dxfId="59" priority="4064">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="58" priority="4065">
-      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="57" priority="4066">
-      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W132">
-    <cfRule type="expression" dxfId="56" priority="4067">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="55" priority="4068">
-      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="4069">
-      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W133">
-    <cfRule type="expression" dxfId="53" priority="4070">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="52" priority="4071">
-      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="51" priority="4072">
-      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W134">
-    <cfRule type="expression" dxfId="50" priority="4073">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="49" priority="4074">
-      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="4075">
-      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W135">
-    <cfRule type="expression" dxfId="47" priority="4076">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="4077">
-      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="45" priority="4078">
-      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W136:W137">
-    <cfRule type="expression" dxfId="44" priority="4079">
-      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="4080">
-      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="42" priority="4081">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W138">
-    <cfRule type="expression" dxfId="41" priority="4082">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="4083">
-      <formula>AND($E121&lt;=W$6,ROUNDDOWN(($F121-$E121+1)*$H121,0)+$E121-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="4084">
-      <formula>AND(NOT(ISBLANK($E121)),$E121&lt;=W$6,$F121&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W139">
-    <cfRule type="expression" dxfId="38" priority="4085">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="4086">
-      <formula>AND($E121&lt;=W$6,ROUNDDOWN(($F121-$E121+1)*$H121,0)+$E121-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="36" priority="4087">
-      <formula>AND(NOT(ISBLANK($E121)),$E121&lt;=W$6,$F121&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W140">
-    <cfRule type="expression" dxfId="35" priority="4088">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="4089">
-      <formula>AND($E121&lt;=W$6,ROUNDDOWN(($F121-$E121+1)*$H121,0)+$E121-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="33" priority="4090">
-      <formula>AND(NOT(ISBLANK($E121)),$E121&lt;=W$6,$F121&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W141">
-    <cfRule type="expression" dxfId="32" priority="4091">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="4092">
-      <formula>AND($E121&lt;=W$6,ROUNDDOWN(($F121-$E121+1)*$H121,0)+$E121-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="30" priority="4093">
-      <formula>AND(NOT(ISBLANK($E121)),$E121&lt;=W$6,$F121&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W142">
-    <cfRule type="expression" dxfId="29" priority="4094">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="4095">
-      <formula>AND($E121&lt;=W$6,ROUNDDOWN(($F121-$E121+1)*$H121,0)+$E121-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="27" priority="4096">
-      <formula>AND(NOT(ISBLANK($E121)),$E121&lt;=W$6,$F121&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W143:W144">
-    <cfRule type="expression" dxfId="26" priority="4097">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="4098">
-      <formula>AND($E121&lt;=W$6,ROUNDDOWN(($F121-$E121+1)*$H121,0)+$E121-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="24" priority="4099">
-      <formula>AND(NOT(ISBLANK($E121)),$E121&lt;=W$6,$F121&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W145">
-    <cfRule type="expression" dxfId="23" priority="4100">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="4101">
-      <formula>AND($E122&lt;=W$6,ROUNDDOWN(($F122-$E122+1)*$H122,0)+$E122-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="4102">
-      <formula>AND(NOT(ISBLANK($E122)),$E122&lt;=W$6,$F122&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W146:W147">
-    <cfRule type="expression" dxfId="20" priority="4103">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4104">
-      <formula>AND($E122&lt;=W$6,ROUNDDOWN(($F122-$E122+1)*$H122,0)+$E122-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="18" priority="4105">
-      <formula>AND(NOT(ISBLANK($E122)),$E122&lt;=W$6,$F122&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W148">
-    <cfRule type="expression" dxfId="17" priority="4106">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="4107">
-      <formula>AND($E123&lt;=W$6,ROUNDDOWN(($F123-$E123+1)*$H123,0)+$E123-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="4108">
-      <formula>AND(NOT(ISBLANK($E123)),$E123&lt;=W$6,$F123&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W149">
-    <cfRule type="expression" dxfId="14" priority="4109">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4110">
-      <formula>AND($E123&lt;=W$6,ROUNDDOWN(($F123-$E123+1)*$H123,0)+$E123-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="12" priority="4111">
-      <formula>AND(NOT(ISBLANK($E123)),$E123&lt;=W$6,$F123&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W150:W151 W153:W155">
-    <cfRule type="expression" dxfId="11" priority="4112">
-      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4113">
-      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="9" priority="4114">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="16" priority="2">
+      <formula>AND($E138&lt;=W$6,ROUNDDOWN(($F138-$E138+1)*$H138,0)+$E138-1&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W156">
-    <cfRule type="expression" dxfId="8" priority="4118">
+    <cfRule type="expression" dxfId="15" priority="4119">
+      <formula>AND(NOT(ISBLANK($E125)),$E125&lt;=W$6,$F125&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="4118">
       <formula>AND($E125&lt;=W$6,ROUNDDOWN(($F125-$E125+1)*$H125,0)+$E125-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="4119">
-      <formula>AND(NOT(ISBLANK($E125)),$E125&lt;=W$6,$F125&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4120">
+    <cfRule type="expression" dxfId="13" priority="4120">
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W157">
-    <cfRule type="expression" dxfId="5" priority="4121">
+    <cfRule type="expression" dxfId="12" priority="4121">
       <formula>AND($E123&lt;=W$6,ROUNDDOWN(($F123-$E123+1)*$H123,0)+$E123-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4122">
+    <cfRule type="expression" dxfId="11" priority="4122">
       <formula>AND(NOT(ISBLANK($E123)),$E123&lt;=W$6,$F123&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4123">
+    <cfRule type="expression" dxfId="10" priority="4123">
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="W158:W159">
+    <cfRule type="expression" dxfId="9" priority="9">
+      <formula>AND(NOT(ISBLANK($E122)),$E122&lt;=W$6,$F122&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="8">
+      <formula>AND($E122&lt;=W$6,ROUNDDOWN(($F122-$E122+1)*$H122,0)+$E122-1&gt;=W$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W158:W161">
+    <cfRule type="expression" dxfId="7" priority="4037">
+      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W160:W161">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>AND(NOT(ISBLANK($E122)),$E122&lt;=W$6,$F122&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>AND($E122&lt;=W$6,ROUNDDOWN(($F122-$E122+1)*$H122,0)+$E122-1&gt;=W$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="W162">
-    <cfRule type="expression" dxfId="2" priority="4124">
+    <cfRule type="expression" dxfId="4" priority="4126">
+      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="4124">
       <formula>AND($E123&lt;=W$6,ROUNDDOWN(($F123-$E123+1)*$H123,0)+$E123-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="4125">
+    <cfRule type="expression" dxfId="2" priority="4125">
       <formula>AND(NOT(ISBLANK($E123)),$E123&lt;=W$6,$F123&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4126">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W163">
+    <cfRule type="expression" dxfId="1" priority="1513">
+      <formula>AND(NOT(ISBLANK($E105)),$E105&lt;=W$6,$F105&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1512">
+      <formula>AND($E105&lt;=W$6,ROUNDDOWN(($F105-$E105+1)*$H105,0)+$E105-1&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0" footer="0"/>

--- a/Dự án cây xanh/WBS_QuanLyDuAnCayXanh.xlsx
+++ b/Dự án cây xanh/WBS_QuanLyDuAnCayXanh.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InternTester\Project\Dự án cây xanh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE140A07-55F5-47FB-87B1-F8EFD7C9ACB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12500B2A-0B9A-4CBF-8D98-96658A45D6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1540,22 +1540,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FF0070C0"/>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
@@ -1573,122 +1557,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1726,25 +1594,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1766,9 +1617,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1790,41 +1640,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1902,38 +1719,6 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FF0070C0"/>
           <bgColor rgb="FF0070C0"/>
         </patternFill>
@@ -1960,6 +1745,22 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF7F7F7F"/>
           <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2068,6 +1869,205 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
@@ -2135,9 +2135,8 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2151,8 +2150,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2181,29 +2181,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
@@ -2222,236 +2199,6 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF7F7F7F"/>
           <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2557,8 +2304,116 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2587,14 +2442,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
@@ -2603,23 +2450,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FF0070C0"/>
           <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2694,6 +2526,75 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF7F7F7F"/>
           <bgColor rgb="FF7F7F7F"/>
@@ -2712,6 +2613,105 @@
         <patternFill patternType="solid">
           <fgColor rgb="FF0070C0"/>
           <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2888,16 +2888,16 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF0070C0"/>
-          <bgColor rgb="FF0070C0"/>
+          <fgColor rgb="FF7F7F7F"/>
+          <bgColor rgb="FF7F7F7F"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FF7F7F7F"/>
-          <bgColor rgb="FF7F7F7F"/>
+          <fgColor rgb="FF0070C0"/>
+          <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3155,8 +3155,8 @@
   <dimension ref="A1:BN170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M27" sqref="M27"/>
+      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5515,7 +5515,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="36">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="I25" s="37">
         <f t="shared" si="3"/>
@@ -5601,7 +5601,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="36">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="I26" s="37">
         <f t="shared" si="3"/>
@@ -5686,7 +5686,9 @@
       <c r="G27" s="35">
         <v>1</v>
       </c>
-      <c r="H27" s="36"/>
+      <c r="H27" s="36">
+        <v>1</v>
+      </c>
       <c r="I27" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -5770,7 +5772,9 @@
       <c r="G28" s="35">
         <v>1</v>
       </c>
-      <c r="H28" s="36"/>
+      <c r="H28" s="36">
+        <v>1</v>
+      </c>
       <c r="I28" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -5853,7 +5857,9 @@
       <c r="G29" s="35">
         <v>1</v>
       </c>
-      <c r="H29" s="36"/>
+      <c r="H29" s="36">
+        <v>1</v>
+      </c>
       <c r="I29" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -5937,7 +5943,9 @@
       <c r="G30" s="35">
         <v>1</v>
       </c>
-      <c r="H30" s="36"/>
+      <c r="H30" s="36">
+        <v>1</v>
+      </c>
       <c r="I30" s="37">
         <f t="shared" si="3"/>
         <v>1</v>
@@ -17715,11 +17723,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8:BN29 Y30:BN30 K30:V34 X31:BN34 K35:BN35 K36:V58 X36:BN58 K59:BN59 K60:V170 X60:BN170 W92:W93 W102">
-    <cfRule type="expression" dxfId="175" priority="153">
+    <cfRule type="expression" dxfId="175" priority="154">
+      <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6,WEEKDAY(K$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="174" priority="153">
       <formula>AND($E8&lt;=K$6,ROUNDDOWN(($F8-$E8+1)*$H8,0)+$E8-1&gt;=K$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="174" priority="154">
-      <formula>AND(NOT(ISBLANK($E8)),$E8&lt;=K$6,$F8&gt;=K$6,WEEKDAY(K$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30:W31">
@@ -17825,25 +17833,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W54">
-    <cfRule type="expression" dxfId="151" priority="3951">
-      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="150" priority="3949">
+    <cfRule type="expression" dxfId="151" priority="3949">
       <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="149" priority="3950">
+    <cfRule type="expression" dxfId="150" priority="3950">
       <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="149" priority="3951">
+      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W55">
-    <cfRule type="expression" dxfId="148" priority="3954">
-      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    <cfRule type="expression" dxfId="148" priority="3952">
+      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="147" priority="3953">
       <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="3952">
-      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="146" priority="3954">
+      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W56">
@@ -17852,36 +17860,36 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W57">
-    <cfRule type="expression" dxfId="144" priority="3958">
-      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    <cfRule type="expression" dxfId="144" priority="3956">
+      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="143" priority="3957">
       <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="142" priority="3956">
-      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="142" priority="3958">
+      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W58">
-    <cfRule type="expression" dxfId="141" priority="3960">
+    <cfRule type="expression" dxfId="141" priority="3959">
+      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="140" priority="3960">
       <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="3961">
+    <cfRule type="expression" dxfId="139" priority="3961">
       <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="139" priority="3959">
-      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W60">
     <cfRule type="expression" dxfId="138" priority="3964">
       <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="137" priority="3963">
+    <cfRule type="expression" dxfId="137" priority="3962">
+      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="136" priority="3963">
       <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="136" priority="3962">
-      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W61">
@@ -17896,88 +17904,88 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W62">
-    <cfRule type="expression" dxfId="132" priority="3969">
+    <cfRule type="expression" dxfId="132" priority="3970">
+      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="131" priority="3969">
       <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="131" priority="3968">
+    <cfRule type="expression" dxfId="130" priority="3968">
       <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="130" priority="3970">
-      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W63">
-    <cfRule type="expression" dxfId="129" priority="3971">
-      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="129" priority="3973">
+      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="128" priority="3972">
       <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="127" priority="3973">
-      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    <cfRule type="expression" dxfId="127" priority="3971">
+      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W64">
-    <cfRule type="expression" dxfId="126" priority="3974">
-      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="126" priority="3976">
+      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="125" priority="3975">
       <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="124" priority="3976">
-      <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    <cfRule type="expression" dxfId="124" priority="3974">
+      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W65:W66">
-    <cfRule type="expression" dxfId="123" priority="3977">
-      <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
+    <cfRule type="expression" dxfId="123" priority="3979">
+      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="122" priority="3978">
       <formula>AND(NOT(ISBLANK($E49)),$E49&lt;=W$6,$F49&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="121" priority="3979">
-      <formula>AND(NOT(ISBLANK($E163)),$E163&lt;=X$6,$F163&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="121" priority="3977">
+      <formula>AND($E49&lt;=W$6,ROUNDDOWN(($F49-$E49+1)*$H49,0)+$E49-1&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W67">
-    <cfRule type="expression" dxfId="120" priority="3982">
-      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="119" priority="3980">
+    <cfRule type="expression" dxfId="120" priority="3980">
       <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="118" priority="3981">
+    <cfRule type="expression" dxfId="119" priority="3981">
       <formula>AND($E50&lt;=W$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="118" priority="3982">
+      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W68">
     <cfRule type="expression" dxfId="117" priority="3985">
       <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="116" priority="3984">
+    <cfRule type="expression" dxfId="116" priority="3983">
+      <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="115" priority="3984">
       <formula>AND($E50&lt;=W$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="115" priority="3983">
-      <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W69">
-    <cfRule type="expression" dxfId="114" priority="3988">
-      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    <cfRule type="expression" dxfId="114" priority="3986">
+      <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="113" priority="3987">
       <formula>AND($E50&lt;=W$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="3986">
-      <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="112" priority="3988">
+      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W70">
-    <cfRule type="expression" dxfId="111" priority="3991">
+    <cfRule type="expression" dxfId="111" priority="3990">
+      <formula>AND($E50&lt;=W$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="110" priority="3991">
       <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="110" priority="3990">
-      <formula>AND($E50&lt;=W$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=W$6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="109" priority="3989">
       <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
@@ -17987,44 +17995,44 @@
     <cfRule type="expression" dxfId="108" priority="3993">
       <formula>AND($E50&lt;=W$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="3992">
+    <cfRule type="expression" dxfId="107" priority="3994">
+      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="106" priority="3992">
       <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="106" priority="3994">
-      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W72:W73">
-    <cfRule type="expression" dxfId="105" priority="3997">
-      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    <cfRule type="expression" dxfId="105" priority="3995">
+      <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="104" priority="3996">
       <formula>AND($E50&lt;=W$6,ROUNDDOWN(($F50-$E50+1)*$H50,0)+$E50-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="3995">
-      <formula>AND(NOT(ISBLANK($E164)),$E164&lt;=X$6,$F164&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="103" priority="3997">
+      <formula>AND(NOT(ISBLANK($E50)),$E50&lt;=W$6,$F50&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W74">
-    <cfRule type="expression" dxfId="102" priority="4000">
-      <formula>AND(NOT(ISBLANK($E51)),$E51&lt;=W$6,$F51&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    <cfRule type="expression" dxfId="102" priority="3998">
+      <formula>AND(NOT(ISBLANK($E165)),$E165&lt;=X$6,$F165&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="101" priority="3999">
       <formula>AND($E51&lt;=W$6,ROUNDDOWN(($F51-$E51+1)*$H51,0)+$E51-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="3998">
-      <formula>AND(NOT(ISBLANK($E165)),$E165&lt;=X$6,$F165&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="100" priority="4000">
+      <formula>AND(NOT(ISBLANK($E51)),$E51&lt;=W$6,$F51&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W75:W76">
-    <cfRule type="expression" dxfId="99" priority="4003">
-      <formula>AND(NOT(ISBLANK($E51)),$E51&lt;=W$6,$F51&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="98" priority="4001">
+    <cfRule type="expression" dxfId="99" priority="4001">
       <formula>AND(NOT(ISBLANK($E165)),$E165&lt;=X$6,$F165&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="4002">
+    <cfRule type="expression" dxfId="98" priority="4002">
       <formula>AND($E51&lt;=W$6,ROUNDDOWN(($F51-$E51+1)*$H51,0)+$E51-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="97" priority="4003">
+      <formula>AND(NOT(ISBLANK($E51)),$E51&lt;=W$6,$F51&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W77">
@@ -18061,25 +18069,25 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W81">
-    <cfRule type="expression" dxfId="87" priority="3816">
-      <formula>AND($E67&lt;=W$6,ROUNDDOWN(($F67-$E67+1)*$H67,0)+$E67-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="86" priority="3817">
+    <cfRule type="expression" dxfId="87" priority="3817">
       <formula>AND(NOT(ISBLANK($E67)),$E67&lt;=W$6,$F67&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="3818">
+    <cfRule type="expression" dxfId="86" priority="3818">
       <formula>AND(NOT(ISBLANK($E95)),$E95&lt;=X$6,$F95&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="3816">
+      <formula>AND($E67&lt;=W$6,ROUNDDOWN(($F67-$E67+1)*$H67,0)+$E67-1&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W85">
     <cfRule type="expression" dxfId="84" priority="4016">
       <formula>AND($E54&lt;=W$6,ROUNDDOWN(($F54-$E54+1)*$H54,0)+$E54-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="83" priority="4018">
+    <cfRule type="expression" dxfId="83" priority="4017">
+      <formula>AND(NOT(ISBLANK($E54)),$E54&lt;=W$6,$F54&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="4018">
       <formula>AND(NOT(ISBLANK($E168)),$E168&lt;=X$6,$F168&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="4017">
-      <formula>AND(NOT(ISBLANK($E54)),$E54&lt;=W$6,$F54&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W86">
@@ -18094,14 +18102,14 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W87:W88">
-    <cfRule type="expression" dxfId="78" priority="4024">
-      <formula>AND(NOT(ISBLANK($E165)),$E165&lt;=X$6,$F165&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
+    <cfRule type="expression" dxfId="78" priority="4022">
+      <formula>AND($E51&lt;=W$6,ROUNDDOWN(($F51-$E51+1)*$H51,0)+$E51-1&gt;=W$6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="77" priority="4023">
       <formula>AND(NOT(ISBLANK($E51)),$E51&lt;=W$6,$F51&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="4022">
-      <formula>AND($E51&lt;=W$6,ROUNDDOWN(($F51-$E51+1)*$H51,0)+$E51-1&gt;=W$6)</formula>
+    <cfRule type="expression" dxfId="76" priority="4024">
+      <formula>AND(NOT(ISBLANK($E165)),$E165&lt;=X$6,$F165&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W89:W90">
@@ -18147,19 +18155,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W112 W118 W120 W122">
-    <cfRule type="expression" dxfId="65" priority="81">
+    <cfRule type="expression" dxfId="65" priority="82">
+      <formula>AND(NOT(ISBLANK($E110)),$E110&lt;=W$6,$F110&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="81">
       <formula>AND($E110&lt;=W$6,ROUNDDOWN(($F110-$E110+1)*$H110,0)+$E110-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="82">
-      <formula>AND(NOT(ISBLANK($E110)),$E110&lt;=W$6,$F110&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W125">
-    <cfRule type="expression" dxfId="63" priority="4052">
+    <cfRule type="expression" dxfId="63" priority="4053">
+      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="62" priority="4052">
       <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="62" priority="4053">
-      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W126">
@@ -18179,19 +18187,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W129">
-    <cfRule type="expression" dxfId="57" priority="4063">
+    <cfRule type="expression" dxfId="57" priority="4062">
+      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="56" priority="4063">
       <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="56" priority="4062">
-      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W130">
-    <cfRule type="expression" dxfId="55" priority="3698">
+    <cfRule type="expression" dxfId="55" priority="3697">
+      <formula>AND($E125&lt;=W$6,ROUNDDOWN(($F125-$E125+1)*$H125,0)+$E125-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="54" priority="3698">
       <formula>AND(NOT(ISBLANK($E125)),$E125&lt;=W$6,$F125&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="3697">
-      <formula>AND($E125&lt;=W$6,ROUNDDOWN(($F125-$E125+1)*$H125,0)+$E125-1&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W131">
@@ -18203,19 +18211,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W132">
-    <cfRule type="expression" dxfId="51" priority="4068">
+    <cfRule type="expression" dxfId="51" priority="4069">
+      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="50" priority="4068">
       <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="50" priority="4069">
-      <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W133">
-    <cfRule type="expression" dxfId="49" priority="4072">
+    <cfRule type="expression" dxfId="49" priority="4071">
+      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="48" priority="4072">
       <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="4071">
-      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W134">
@@ -18248,11 +18256,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W138">
-    <cfRule type="expression" dxfId="40" priority="4084">
+    <cfRule type="expression" dxfId="40" priority="4083">
+      <formula>AND($E121&lt;=W$6,ROUNDDOWN(($F121-$E121+1)*$H121,0)+$E121-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="39" priority="4084">
       <formula>AND(NOT(ISBLANK($E121)),$E121&lt;=W$6,$F121&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="39" priority="4083">
-      <formula>AND($E121&lt;=W$6,ROUNDDOWN(($F121-$E121+1)*$H121,0)+$E121-1&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W139">
@@ -18296,43 +18304,43 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W145">
-    <cfRule type="expression" dxfId="28" priority="4101">
+    <cfRule type="expression" dxfId="28" priority="4102">
+      <formula>AND(NOT(ISBLANK($E122)),$E122&lt;=W$6,$F122&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="27" priority="4101">
       <formula>AND($E122&lt;=W$6,ROUNDDOWN(($F122-$E122+1)*$H122,0)+$E122-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="4102">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W146:W147">
+    <cfRule type="expression" dxfId="26" priority="4104">
+      <formula>AND($E122&lt;=W$6,ROUNDDOWN(($F122-$E122+1)*$H122,0)+$E122-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="4105">
       <formula>AND(NOT(ISBLANK($E122)),$E122&lt;=W$6,$F122&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W146:W147">
-    <cfRule type="expression" dxfId="26" priority="4105">
-      <formula>AND(NOT(ISBLANK($E122)),$E122&lt;=W$6,$F122&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+  <conditionalFormatting sqref="W148">
+    <cfRule type="expression" dxfId="24" priority="4107">
+      <formula>AND($E123&lt;=W$6,ROUNDDOWN(($F123-$E123+1)*$H123,0)+$E123-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="4104">
-      <formula>AND($E122&lt;=W$6,ROUNDDOWN(($F122-$E122+1)*$H122,0)+$E122-1&gt;=W$6)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W148">
-    <cfRule type="expression" dxfId="24" priority="4108">
+    <cfRule type="expression" dxfId="23" priority="4108">
       <formula>AND(NOT(ISBLANK($E123)),$E123&lt;=W$6,$F123&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="4107">
-      <formula>AND($E123&lt;=W$6,ROUNDDOWN(($F123-$E123+1)*$H123,0)+$E123-1&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W149">
-    <cfRule type="expression" dxfId="22" priority="4111">
+    <cfRule type="expression" dxfId="22" priority="4110">
+      <formula>AND($E123&lt;=W$6,ROUNDDOWN(($F123-$E123+1)*$H123,0)+$E123-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="4111">
       <formula>AND(NOT(ISBLANK($E123)),$E123&lt;=W$6,$F123&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="4110">
-      <formula>AND($E123&lt;=W$6,ROUNDDOWN(($F123-$E123+1)*$H123,0)+$E123-1&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W150:W151 W153:W155">
-    <cfRule type="expression" dxfId="20" priority="4113">
+    <cfRule type="expression" dxfId="20" priority="4112">
+      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="4113">
       <formula>AND(NOT(ISBLANK($E120)),$E120&lt;=W$6,$F120&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="4112">
-      <formula>AND($E120&lt;=W$6,ROUNDDOWN(($F120-$E120+1)*$H120,0)+$E120-1&gt;=W$6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="4114">
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
@@ -18347,11 +18355,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W156">
-    <cfRule type="expression" dxfId="15" priority="4119">
+    <cfRule type="expression" dxfId="15" priority="4118">
+      <formula>AND($E125&lt;=W$6,ROUNDDOWN(($F125-$E125+1)*$H125,0)+$E125-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="14" priority="4119">
       <formula>AND(NOT(ISBLANK($E125)),$E125&lt;=W$6,$F125&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4118">
-      <formula>AND($E125&lt;=W$6,ROUNDDOWN(($F125-$E125+1)*$H125,0)+$E125-1&gt;=W$6)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="13" priority="4120">
       <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
@@ -18369,11 +18377,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W158:W159">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="9" priority="8">
+      <formula>AND($E122&lt;=W$6,ROUNDDOWN(($F122-$E122+1)*$H122,0)+$E122-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>AND(NOT(ISBLANK($E122)),$E122&lt;=W$6,$F122&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>AND($E122&lt;=W$6,ROUNDDOWN(($F122-$E122+1)*$H122,0)+$E122-1&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W158:W161">
@@ -18382,30 +18390,30 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W160:W161">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="6" priority="6">
+      <formula>AND($E122&lt;=W$6,ROUNDDOWN(($F122-$E122+1)*$H122,0)+$E122-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>AND(NOT(ISBLANK($E122)),$E122&lt;=W$6,$F122&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>AND($E122&lt;=W$6,ROUNDDOWN(($F122-$E122+1)*$H122,0)+$E122-1&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W162">
-    <cfRule type="expression" dxfId="4" priority="4126">
-      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4124">
+    <cfRule type="expression" dxfId="4" priority="4124">
       <formula>AND($E123&lt;=W$6,ROUNDDOWN(($F123-$E123+1)*$H123,0)+$E123-1&gt;=W$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4125">
+    <cfRule type="expression" dxfId="3" priority="4125">
       <formula>AND(NOT(ISBLANK($E123)),$E123&lt;=W$6,$F123&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4126">
+      <formula>AND(NOT(ISBLANK(#REF!)),#REF!&lt;=X$6,#REF!&gt;=X$6,WEEKDAY(X$6,2)&gt;=6)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W163">
-    <cfRule type="expression" dxfId="1" priority="1513">
+    <cfRule type="expression" dxfId="1" priority="1512">
+      <formula>AND($E105&lt;=W$6,ROUNDDOWN(($F105-$E105+1)*$H105,0)+$E105-1&gt;=W$6)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="1513">
       <formula>AND(NOT(ISBLANK($E105)),$E105&lt;=W$6,$F105&gt;=W$6,WEEKDAY(W$6,2)&lt;=5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="1512">
-      <formula>AND($E105&lt;=W$6,ROUNDDOWN(($F105-$E105+1)*$H105,0)+$E105-1&gt;=W$6)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0" footer="0"/>

--- a/Dự án cây xanh/WBS_QuanLyDuAnCayXanh.xlsx
+++ b/Dự án cây xanh/WBS_QuanLyDuAnCayXanh.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\InternTester\Project\Dự án cây xanh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12500B2A-0B9A-4CBF-8D98-96658A45D6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A8FC4A-ED75-4908-897C-803290A88361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1516,14 +1516,6 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="168" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1532,6 +1524,14 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3155,8 +3155,8 @@
   <dimension ref="A1:BN170"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H20" sqref="H20"/>
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3386,196 +3386,196 @@
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="107">
+      <c r="C4" s="103">
         <v>45770</v>
       </c>
-      <c r="D4" s="108"/>
-      <c r="E4" s="108"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="104"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H4" s="10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
-      <c r="K4" s="103" t="str">
+      <c r="K4" s="110" t="str">
         <f>"Week "&amp;(K6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 2</v>
-      </c>
-      <c r="L4" s="104"/>
-      <c r="M4" s="104"/>
-      <c r="N4" s="104"/>
-      <c r="O4" s="104"/>
-      <c r="P4" s="104"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="103" t="str">
+        <v>Week 3</v>
+      </c>
+      <c r="L4" s="108"/>
+      <c r="M4" s="108"/>
+      <c r="N4" s="108"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="108"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="110" t="str">
         <f>"Week "&amp;(R6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 3</v>
-      </c>
-      <c r="S4" s="104"/>
-      <c r="T4" s="104"/>
-      <c r="U4" s="104"/>
-      <c r="V4" s="104"/>
-      <c r="W4" s="104"/>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="103" t="str">
+        <v>Week 4</v>
+      </c>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="110" t="str">
         <f>"Week "&amp;(Y6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 4</v>
-      </c>
-      <c r="Z4" s="104"/>
-      <c r="AA4" s="104"/>
-      <c r="AB4" s="104"/>
-      <c r="AC4" s="104"/>
-      <c r="AD4" s="104"/>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="103" t="str">
+        <v>Week 5</v>
+      </c>
+      <c r="Z4" s="108"/>
+      <c r="AA4" s="108"/>
+      <c r="AB4" s="108"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="108"/>
+      <c r="AE4" s="109"/>
+      <c r="AF4" s="110" t="str">
         <f>"Week "&amp;(AF6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 5</v>
-      </c>
-      <c r="AG4" s="104"/>
-      <c r="AH4" s="104"/>
-      <c r="AI4" s="104"/>
-      <c r="AJ4" s="104"/>
-      <c r="AK4" s="104"/>
-      <c r="AL4" s="105"/>
-      <c r="AM4" s="103" t="str">
+        <v>Week 6</v>
+      </c>
+      <c r="AG4" s="108"/>
+      <c r="AH4" s="108"/>
+      <c r="AI4" s="108"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="108"/>
+      <c r="AL4" s="109"/>
+      <c r="AM4" s="110" t="str">
         <f>"Week "&amp;(AM6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 6</v>
-      </c>
-      <c r="AN4" s="104"/>
-      <c r="AO4" s="104"/>
-      <c r="AP4" s="104"/>
-      <c r="AQ4" s="104"/>
-      <c r="AR4" s="104"/>
-      <c r="AS4" s="105"/>
-      <c r="AT4" s="103" t="str">
+        <v>Week 7</v>
+      </c>
+      <c r="AN4" s="108"/>
+      <c r="AO4" s="108"/>
+      <c r="AP4" s="108"/>
+      <c r="AQ4" s="108"/>
+      <c r="AR4" s="108"/>
+      <c r="AS4" s="109"/>
+      <c r="AT4" s="110" t="str">
         <f>"Week "&amp;(AT6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 7</v>
-      </c>
-      <c r="AU4" s="104"/>
-      <c r="AV4" s="104"/>
-      <c r="AW4" s="104"/>
-      <c r="AX4" s="104"/>
-      <c r="AY4" s="104"/>
-      <c r="AZ4" s="105"/>
-      <c r="BA4" s="103" t="str">
+        <v>Week 8</v>
+      </c>
+      <c r="AU4" s="108"/>
+      <c r="AV4" s="108"/>
+      <c r="AW4" s="108"/>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="108"/>
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="110" t="str">
         <f>"Week "&amp;(BA6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 8</v>
-      </c>
-      <c r="BB4" s="104"/>
-      <c r="BC4" s="104"/>
-      <c r="BD4" s="104"/>
-      <c r="BE4" s="104"/>
-      <c r="BF4" s="104"/>
-      <c r="BG4" s="105"/>
-      <c r="BH4" s="103" t="str">
+        <v>Week 9</v>
+      </c>
+      <c r="BB4" s="108"/>
+      <c r="BC4" s="108"/>
+      <c r="BD4" s="108"/>
+      <c r="BE4" s="108"/>
+      <c r="BF4" s="108"/>
+      <c r="BG4" s="109"/>
+      <c r="BH4" s="110" t="str">
         <f>"Week "&amp;(BH6-($C$4-WEEKDAY($C$4,1)+2))/7+1</f>
-        <v>Week 9</v>
-      </c>
-      <c r="BI4" s="104"/>
-      <c r="BJ4" s="104"/>
-      <c r="BK4" s="104"/>
-      <c r="BL4" s="104"/>
-      <c r="BM4" s="104"/>
-      <c r="BN4" s="105"/>
+        <v>Week 10</v>
+      </c>
+      <c r="BI4" s="108"/>
+      <c r="BJ4" s="108"/>
+      <c r="BK4" s="108"/>
+      <c r="BL4" s="108"/>
+      <c r="BM4" s="108"/>
+      <c r="BN4" s="109"/>
     </row>
     <row r="5" spans="1:66" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="109" t="s">
+      <c r="C5" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="110"/>
-      <c r="E5" s="110"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="106"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
-      <c r="K5" s="106">
+      <c r="K5" s="107">
         <f>K6</f>
-        <v>45775</v>
-      </c>
-      <c r="L5" s="104"/>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="104"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="105"/>
-      <c r="R5" s="106">
+        <v>45782</v>
+      </c>
+      <c r="L5" s="108"/>
+      <c r="M5" s="108"/>
+      <c r="N5" s="108"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="108"/>
+      <c r="Q5" s="109"/>
+      <c r="R5" s="107">
         <f>R6</f>
-        <v>45782</v>
-      </c>
-      <c r="S5" s="104"/>
-      <c r="T5" s="104"/>
-      <c r="U5" s="104"/>
-      <c r="V5" s="104"/>
-      <c r="W5" s="104"/>
-      <c r="X5" s="105"/>
-      <c r="Y5" s="106">
+        <v>45789</v>
+      </c>
+      <c r="S5" s="108"/>
+      <c r="T5" s="108"/>
+      <c r="U5" s="108"/>
+      <c r="V5" s="108"/>
+      <c r="W5" s="108"/>
+      <c r="X5" s="109"/>
+      <c r="Y5" s="107">
         <f>Y6</f>
-        <v>45789</v>
-      </c>
-      <c r="Z5" s="104"/>
-      <c r="AA5" s="104"/>
-      <c r="AB5" s="104"/>
-      <c r="AC5" s="104"/>
-      <c r="AD5" s="104"/>
-      <c r="AE5" s="105"/>
-      <c r="AF5" s="106">
+        <v>45796</v>
+      </c>
+      <c r="Z5" s="108"/>
+      <c r="AA5" s="108"/>
+      <c r="AB5" s="108"/>
+      <c r="AC5" s="108"/>
+      <c r="AD5" s="108"/>
+      <c r="AE5" s="109"/>
+      <c r="AF5" s="107">
         <f>AF6</f>
-        <v>45796</v>
-      </c>
-      <c r="AG5" s="104"/>
-      <c r="AH5" s="104"/>
-      <c r="AI5" s="104"/>
-      <c r="AJ5" s="104"/>
-      <c r="AK5" s="104"/>
-      <c r="AL5" s="105"/>
-      <c r="AM5" s="106">
+        <v>45803</v>
+      </c>
+      <c r="AG5" s="108"/>
+      <c r="AH5" s="108"/>
+      <c r="AI5" s="108"/>
+      <c r="AJ5" s="108"/>
+      <c r="AK5" s="108"/>
+      <c r="AL5" s="109"/>
+      <c r="AM5" s="107">
         <f>AM6</f>
-        <v>45803</v>
-      </c>
-      <c r="AN5" s="104"/>
-      <c r="AO5" s="104"/>
-      <c r="AP5" s="104"/>
-      <c r="AQ5" s="104"/>
-      <c r="AR5" s="104"/>
-      <c r="AS5" s="105"/>
-      <c r="AT5" s="106">
+        <v>45810</v>
+      </c>
+      <c r="AN5" s="108"/>
+      <c r="AO5" s="108"/>
+      <c r="AP5" s="108"/>
+      <c r="AQ5" s="108"/>
+      <c r="AR5" s="108"/>
+      <c r="AS5" s="109"/>
+      <c r="AT5" s="107">
         <f>AT6</f>
-        <v>45810</v>
-      </c>
-      <c r="AU5" s="104"/>
-      <c r="AV5" s="104"/>
-      <c r="AW5" s="104"/>
-      <c r="AX5" s="104"/>
-      <c r="AY5" s="104"/>
-      <c r="AZ5" s="105"/>
-      <c r="BA5" s="106">
+        <v>45817</v>
+      </c>
+      <c r="AU5" s="108"/>
+      <c r="AV5" s="108"/>
+      <c r="AW5" s="108"/>
+      <c r="AX5" s="108"/>
+      <c r="AY5" s="108"/>
+      <c r="AZ5" s="109"/>
+      <c r="BA5" s="107">
         <f>BA6</f>
-        <v>45817</v>
-      </c>
-      <c r="BB5" s="104"/>
-      <c r="BC5" s="104"/>
-      <c r="BD5" s="104"/>
-      <c r="BE5" s="104"/>
-      <c r="BF5" s="104"/>
-      <c r="BG5" s="105"/>
-      <c r="BH5" s="106">
+        <v>45824</v>
+      </c>
+      <c r="BB5" s="108"/>
+      <c r="BC5" s="108"/>
+      <c r="BD5" s="108"/>
+      <c r="BE5" s="108"/>
+      <c r="BF5" s="108"/>
+      <c r="BG5" s="109"/>
+      <c r="BH5" s="107">
         <f>BH6</f>
-        <v>45824</v>
-      </c>
-      <c r="BI5" s="104"/>
-      <c r="BJ5" s="104"/>
-      <c r="BK5" s="104"/>
-      <c r="BL5" s="104"/>
-      <c r="BM5" s="104"/>
-      <c r="BN5" s="105"/>
+        <v>45831</v>
+      </c>
+      <c r="BI5" s="108"/>
+      <c r="BJ5" s="108"/>
+      <c r="BK5" s="108"/>
+      <c r="BL5" s="108"/>
+      <c r="BM5" s="108"/>
+      <c r="BN5" s="109"/>
     </row>
     <row r="6" spans="1:66" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -3590,227 +3590,227 @@
       <c r="J6" s="2"/>
       <c r="K6" s="11">
         <f>C4-WEEKDAY(C4,1)+2+7*(H4-1)</f>
-        <v>45775</v>
+        <v>45782</v>
       </c>
       <c r="L6" s="12">
         <f t="shared" ref="L6:BN6" si="0">K6+1</f>
-        <v>45776</v>
+        <v>45783</v>
       </c>
       <c r="M6" s="12">
         <f t="shared" si="0"/>
-        <v>45777</v>
+        <v>45784</v>
       </c>
       <c r="N6" s="12">
         <f t="shared" si="0"/>
-        <v>45778</v>
+        <v>45785</v>
       </c>
       <c r="O6" s="12">
         <f t="shared" si="0"/>
-        <v>45779</v>
+        <v>45786</v>
       </c>
       <c r="P6" s="12">
         <f t="shared" si="0"/>
-        <v>45780</v>
+        <v>45787</v>
       </c>
       <c r="Q6" s="13">
         <f t="shared" si="0"/>
-        <v>45781</v>
+        <v>45788</v>
       </c>
       <c r="R6" s="11">
         <f t="shared" si="0"/>
-        <v>45782</v>
+        <v>45789</v>
       </c>
       <c r="S6" s="12">
         <f t="shared" si="0"/>
-        <v>45783</v>
+        <v>45790</v>
       </c>
       <c r="T6" s="12">
         <f t="shared" si="0"/>
-        <v>45784</v>
+        <v>45791</v>
       </c>
       <c r="U6" s="12">
         <f t="shared" si="0"/>
-        <v>45785</v>
+        <v>45792</v>
       </c>
       <c r="V6" s="12">
         <f t="shared" si="0"/>
-        <v>45786</v>
+        <v>45793</v>
       </c>
       <c r="W6" s="12">
         <f t="shared" si="0"/>
-        <v>45787</v>
+        <v>45794</v>
       </c>
       <c r="X6" s="13">
         <f t="shared" si="0"/>
-        <v>45788</v>
+        <v>45795</v>
       </c>
       <c r="Y6" s="11">
         <f t="shared" si="0"/>
-        <v>45789</v>
+        <v>45796</v>
       </c>
       <c r="Z6" s="12">
         <f t="shared" si="0"/>
-        <v>45790</v>
+        <v>45797</v>
       </c>
       <c r="AA6" s="12">
         <f t="shared" si="0"/>
-        <v>45791</v>
+        <v>45798</v>
       </c>
       <c r="AB6" s="12">
         <f t="shared" si="0"/>
-        <v>45792</v>
+        <v>45799</v>
       </c>
       <c r="AC6" s="12">
         <f t="shared" si="0"/>
-        <v>45793</v>
+        <v>45800</v>
       </c>
       <c r="AD6" s="12">
         <f t="shared" si="0"/>
-        <v>45794</v>
+        <v>45801</v>
       </c>
       <c r="AE6" s="13">
         <f t="shared" si="0"/>
-        <v>45795</v>
+        <v>45802</v>
       </c>
       <c r="AF6" s="11">
         <f t="shared" si="0"/>
-        <v>45796</v>
+        <v>45803</v>
       </c>
       <c r="AG6" s="12">
         <f t="shared" si="0"/>
-        <v>45797</v>
+        <v>45804</v>
       </c>
       <c r="AH6" s="12">
         <f t="shared" si="0"/>
-        <v>45798</v>
+        <v>45805</v>
       </c>
       <c r="AI6" s="12">
         <f t="shared" si="0"/>
-        <v>45799</v>
+        <v>45806</v>
       </c>
       <c r="AJ6" s="12">
         <f t="shared" si="0"/>
-        <v>45800</v>
+        <v>45807</v>
       </c>
       <c r="AK6" s="12">
         <f t="shared" si="0"/>
-        <v>45801</v>
+        <v>45808</v>
       </c>
       <c r="AL6" s="13">
         <f t="shared" si="0"/>
-        <v>45802</v>
+        <v>45809</v>
       </c>
       <c r="AM6" s="11">
         <f t="shared" si="0"/>
-        <v>45803</v>
+        <v>45810</v>
       </c>
       <c r="AN6" s="12">
         <f t="shared" si="0"/>
-        <v>45804</v>
+        <v>45811</v>
       </c>
       <c r="AO6" s="12">
         <f t="shared" si="0"/>
-        <v>45805</v>
+        <v>45812</v>
       </c>
       <c r="AP6" s="12">
         <f t="shared" si="0"/>
-        <v>45806</v>
+        <v>45813</v>
       </c>
       <c r="AQ6" s="12">
         <f t="shared" si="0"/>
-        <v>45807</v>
+        <v>45814</v>
       </c>
       <c r="AR6" s="12">
         <f t="shared" si="0"/>
-        <v>45808</v>
+        <v>45815</v>
       </c>
       <c r="AS6" s="13">
         <f t="shared" si="0"/>
-        <v>45809</v>
+        <v>45816</v>
       </c>
       <c r="AT6" s="11">
         <f t="shared" si="0"/>
-        <v>45810</v>
+        <v>45817</v>
       </c>
       <c r="AU6" s="12">
         <f t="shared" si="0"/>
-        <v>45811</v>
+        <v>45818</v>
       </c>
       <c r="AV6" s="12">
         <f t="shared" si="0"/>
-        <v>45812</v>
+        <v>45819</v>
       </c>
       <c r="AW6" s="12">
         <f t="shared" si="0"/>
-        <v>45813</v>
+        <v>45820</v>
       </c>
       <c r="AX6" s="12">
         <f t="shared" si="0"/>
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="AY6" s="12">
         <f t="shared" si="0"/>
-        <v>45815</v>
+        <v>45822</v>
       </c>
       <c r="AZ6" s="13">
         <f t="shared" si="0"/>
-        <v>45816</v>
+        <v>45823</v>
       </c>
       <c r="BA6" s="11">
         <f t="shared" si="0"/>
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="BB6" s="12">
         <f t="shared" si="0"/>
-        <v>45818</v>
+        <v>45825</v>
       </c>
       <c r="BC6" s="12">
         <f t="shared" si="0"/>
-        <v>45819</v>
+        <v>45826</v>
       </c>
       <c r="BD6" s="12">
         <f t="shared" si="0"/>
-        <v>45820</v>
+        <v>45827</v>
       </c>
       <c r="BE6" s="12">
         <f t="shared" si="0"/>
-        <v>45821</v>
+        <v>45828</v>
       </c>
       <c r="BF6" s="12">
         <f t="shared" si="0"/>
-        <v>45822</v>
+        <v>45829</v>
       </c>
       <c r="BG6" s="13">
         <f t="shared" si="0"/>
-        <v>45823</v>
+        <v>45830</v>
       </c>
       <c r="BH6" s="11">
         <f t="shared" si="0"/>
-        <v>45824</v>
+        <v>45831</v>
       </c>
       <c r="BI6" s="12">
         <f t="shared" si="0"/>
-        <v>45825</v>
+        <v>45832</v>
       </c>
       <c r="BJ6" s="12">
         <f t="shared" si="0"/>
-        <v>45826</v>
+        <v>45833</v>
       </c>
       <c r="BK6" s="12">
         <f t="shared" si="0"/>
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="BL6" s="12">
         <f t="shared" si="0"/>
-        <v>45828</v>
+        <v>45835</v>
       </c>
       <c r="BM6" s="12">
         <f t="shared" si="0"/>
-        <v>45829</v>
+        <v>45836</v>
       </c>
       <c r="BN6" s="13">
         <f t="shared" si="0"/>
-        <v>45830</v>
+        <v>45837</v>
       </c>
     </row>
     <row r="7" spans="1:66" ht="31.5" x14ac:dyDescent="0.25">
@@ -17688,14 +17688,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="K5:Q5"/>
-    <mergeCell ref="R5:X5"/>
-    <mergeCell ref="Y5:AE5"/>
-    <mergeCell ref="K4:Q4"/>
-    <mergeCell ref="R4:X4"/>
-    <mergeCell ref="Y4:AE4"/>
     <mergeCell ref="AF4:AL4"/>
     <mergeCell ref="AM4:AS4"/>
     <mergeCell ref="BH4:BN4"/>
@@ -17706,6 +17698,14 @@
     <mergeCell ref="AM5:AS5"/>
     <mergeCell ref="AT4:AZ4"/>
     <mergeCell ref="BA4:BG4"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="K5:Q5"/>
+    <mergeCell ref="R5:X5"/>
+    <mergeCell ref="Y5:AE5"/>
+    <mergeCell ref="K4:Q4"/>
+    <mergeCell ref="R4:X4"/>
+    <mergeCell ref="Y4:AE4"/>
   </mergeCells>
   <conditionalFormatting sqref="K6:BN7">
     <cfRule type="expression" dxfId="178" priority="152">
